--- a/console/Networking/agExcel/components/autoScaling/alarmComponents/delAlarm.xlsx
+++ b/console/Networking/agExcel/components/autoScaling/alarmComponents/delAlarm.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/components/autoScaling/alarmComponents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB00F38-FCF4-2B45-9467-85D3FBFFA804}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22600" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -40,14 +46,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Confirm to delete alarm policies </t>
+    <t>Confirm to delete alarm policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -431,21 +438,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="35.25" customWidth="1"/>
-    <col min="3" max="3" width="47.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
